--- a/biology/Botanique/Gracilaria/Gracilaria.xlsx
+++ b/biology/Botanique/Gracilaria/Gracilaria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gracilaria est un genre d'algues rouges de la famille des Gracilariaceae. Certaines espèces du genre sont utilisées dans la cuisine japonaise et la cuisine hawaïenne sous le nom vernaculaire ogonori. A Hawaii, il existe une recette de salade contenant des ogonori appelée  poke (en). Elles sont aussi consommées sur l'île de Guam, où  le nom chaguan tasi désigne le genre. La mort de certains consommateurs sur cette île a entraîné diverses études portant sur une potentielle toxicité du genre ; l'hypothèse la plus probable reste la présence de Cyanobactéries toxiques épiphytes ayant poussé sur les algues consommées avant les décès[1]. 
-Aux Philippines où elles sont aussi consommées, les algues sont appelées gulaman ou guraman[2].
-Ces algues font l'objet d'une aquaculture importante [3] notamment pour pouvoir produire de l'agar-agar, un gélifiant notamment utilisé dans les produits Hallal.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gracilaria est un genre d'algues rouges de la famille des Gracilariaceae. Certaines espèces du genre sont utilisées dans la cuisine japonaise et la cuisine hawaïenne sous le nom vernaculaire ogonori. A Hawaii, il existe une recette de salade contenant des ogonori appelée  poke (en). Elles sont aussi consommées sur l'île de Guam, où  le nom chaguan tasi désigne le genre. La mort de certains consommateurs sur cette île a entraîné diverses études portant sur une potentielle toxicité du genre ; l'hypothèse la plus probable reste la présence de Cyanobactéries toxiques épiphytes ayant poussé sur les algues consommées avant les décès. 
+Aux Philippines où elles sont aussi consommées, les algues sont appelées gulaman ou guraman.
+Ces algues font l'objet d'une aquaculture importante  notamment pour pouvoir produire de l'agar-agar, un gélifiant notamment utilisé dans les produits Hallal.
 </t>
         </is>
       </c>
@@ -513,9 +525,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon AlgaeBase                                           (17 mars 2013)[4] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon AlgaeBase                                           (17 mars 2013) :
 Gracilaria abbottiana M.D.Hoyle
 Gracilaria abyssalis Gurgel &amp; Yoneshigue-Valentin
 Gracilaria aculeata (Hering) Papenfuss
@@ -692,7 +706,7 @@
 Gracilaria yamamotoi Zhang &amp; B.M.Xia
 Gracilaria yinggehaiensis Xia &amp; Wang
 Gracilaria yoneshigueana Gurgel, Fredericq &amp; J.N.Norris
-Selon ITIS      (17 mars 2013)[5] :
+Selon ITIS      (17 mars 2013) :
 Gracilaria andersonii
 Gracilaria apiculata P. Crouan &amp; H. Crouan in Schramm &amp; Mazé
 Gracilaria arcuata Zanardini
@@ -736,7 +750,7 @@
 Gracilaria turgida E. Y. Dawson
 Gracilaria venezuelensis W. R. Taylor
 Gracilaria verrucosa (Hudson) Papenfuss
-Selon NCBI  (17 mars 2013)[6] :
+Selon NCBI  (17 mars 2013) :
 Gracilaria abbottiana
 Gracilaria aculeata
 Gracilaria andersonii
@@ -822,7 +836,7 @@
 Gracilaria vermiculophylla
 Gracilaria vieillardii
 Gracilaria yoneshigueana
-Selon World Register of Marine Species                               (17 mars 2013)[7] :
+Selon World Register of Marine Species                               (17 mars 2013) :
 Gracilaria abbottiana M.D.Hoyle, 1978
 Gracilaria abyssalis Gurgel &amp; Yoneshigue-Valentin, 2008
 Gracilaria aculeata (Hering) Papenfuss, 1967
